--- a/members.xlsx
+++ b/members.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>Language</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>hideo.fukumori</t>
+  </si>
+  <si>
+    <t>kiwisoft</t>
+  </si>
+  <si>
+    <t>pgaultier</t>
   </si>
 </sst>
 </file>
@@ -524,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -583,35 +589,35 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -619,32 +625,32 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -652,21 +658,21 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -674,10 +680,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -685,10 +691,10 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -696,10 +702,10 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -707,21 +713,21 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -729,10 +735,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -740,10 +746,10 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -751,47 +757,58 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>14</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C23">
+  <sortState ref="A2:C24">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/members.xlsx
+++ b/members.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>Language</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>pgaultier</t>
+  </si>
+  <si>
+    <t>Luiz</t>
+  </si>
+  <si>
+    <t>luiz.uo</t>
   </si>
 </sst>
 </file>
@@ -530,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -805,6 +811,17 @@
       </c>
       <c r="C24" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/members.xlsx
+++ b/members.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
     <t>Language</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>luiz.uo</t>
+  </si>
+  <si>
+    <t>Hungarian</t>
+  </si>
+  <si>
+    <t>ggyorfi</t>
   </si>
 </sst>
 </file>
@@ -536,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -822,6 +828,17 @@
       </c>
       <c r="C25" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/members.xlsx
+++ b/members.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>Language</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>ggyorfi</t>
+  </si>
+  <si>
+    <t>alex.lukjanenko</t>
+  </si>
+  <si>
+    <t>Caveman</t>
   </si>
 </sst>
 </file>
@@ -542,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -839,6 +845,17 @@
       </c>
       <c r="C26" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/members.xlsx
+++ b/members.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
   <si>
     <t>Language</t>
   </si>
@@ -208,6 +208,18 @@
   </si>
   <si>
     <t>Caveman</t>
+  </si>
+  <si>
+    <t>krillzip</t>
+  </si>
+  <si>
+    <t>mishhh</t>
+  </si>
+  <si>
+    <t>if.mihai</t>
+  </si>
+  <si>
+    <t>Romanian</t>
   </si>
 </sst>
 </file>
@@ -548,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -640,13 +652,13 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -654,32 +666,32 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -687,32 +699,32 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -720,10 +732,10 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -731,10 +743,10 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -742,43 +754,43 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -786,81 +798,103 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C24">
-    <sortCondition ref="A1"/>
+  <sortState ref="A2:C28">
+    <sortCondition ref="A2:A28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/members.xlsx
+++ b/members.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
   <si>
     <t>Language</t>
   </si>
@@ -220,6 +220,15 @@
   </si>
   <si>
     <t>Romanian</t>
+  </si>
+  <si>
+    <t>Idonesian</t>
+  </si>
+  <si>
+    <t>santosa.eric</t>
+  </si>
+  <si>
+    <t>rx_sa</t>
   </si>
 </sst>
 </file>
@@ -560,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -890,6 +899,17 @@
       </c>
       <c r="C29" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/members.xlsx
+++ b/members.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
   <si>
     <t>Language</t>
   </si>
@@ -229,6 +229,18 @@
   </si>
   <si>
     <t>rx_sa</t>
+  </si>
+  <si>
+    <t>tomasz.suchanek</t>
+  </si>
+  <si>
+    <t>wjx</t>
+  </si>
+  <si>
+    <t>s01master@yahoo.co.jp</t>
+  </si>
+  <si>
+    <t>aztech</t>
   </si>
 </sst>
 </file>
@@ -569,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
@@ -910,6 +922,28 @@
       </c>
       <c r="C30" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/members.xlsx
+++ b/members.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
   <si>
     <t>Language</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>aztech</t>
+  </si>
+  <si>
+    <t>mikl</t>
+  </si>
+  <si>
+    <t>haertl.mike</t>
   </si>
 </sst>
 </file>
@@ -581,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -944,6 +950,17 @@
       </c>
       <c r="C32" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/members.xlsx
+++ b/members.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
   <si>
     <t>Language</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>haertl.mike</t>
+  </si>
+  <si>
+    <t>pmatulla</t>
+  </si>
+  <si>
+    <t>peter.matulla</t>
   </si>
 </sst>
 </file>
@@ -587,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -961,6 +967,17 @@
       </c>
       <c r="C33" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/members.xlsx
+++ b/members.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
   <si>
     <t>Language</t>
   </si>
@@ -253,6 +253,12 @@
   </si>
   <si>
     <t>peter.matulla</t>
+  </si>
+  <si>
+    <t>ru.multif</t>
+  </si>
+  <si>
+    <t>multif</t>
   </si>
 </sst>
 </file>
@@ -593,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -674,315 +680,326 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C28">
-    <sortCondition ref="A2:A28"/>
+  <sortState ref="A2:C35">
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/members.xlsx
+++ b/members.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="83">
   <si>
     <t>Language</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>multif</t>
+  </si>
+  <si>
+    <t>iwasaki</t>
+  </si>
+  <si>
+    <t>iwasaki@cresc.com</t>
   </si>
 </sst>
 </file>
@@ -599,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -995,6 +1001,17 @@
       </c>
       <c r="C35" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/members.xlsx
+++ b/members.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
   <si>
     <t>Language</t>
   </si>
@@ -265,6 +265,12 @@
   </si>
   <si>
     <t>iwasaki@cresc.com</t>
+  </si>
+  <si>
+    <t>ade999</t>
+  </si>
+  <si>
+    <t>Kabayan</t>
   </si>
 </sst>
 </file>
@@ -605,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1012,6 +1018,17 @@
       </c>
       <c r="C36" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
